--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_35.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_35.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1223"/>
+  <dimension ref="A1:N1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.000333786010742</v>
+        <v>0.001133203506469727</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03416705131530762</v>
+        <v>0.0007688999176025391</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0499720573425293</v>
+        <v>0.05468416213989258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 1), (4, 0), (4, 2), (5, 0), (5, 4), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (3, 3), (2, 2), (2, 3), (1, 4), (2, 0), (2, 5), (0, 4), (3, 5), (4, 3), (3, 0), (5, 1), (5, 2), (4, 5), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 1], [3, 1], [4, 0], [4, 2], [5, 0], [5, 4], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [3, 3], [2, 2], [2, 3], [1, 4], [2, 0], [2, 5], [0, 4], [3, 5], [4, 3], [3, 0], [5, 1], [5, 2], [4, 5], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 4), (4, 0), (4, 2), (5, 0), (5, 4), (5, 3), (4, 5), (4, 4), (1, 5), (2, 4), (0, 4), (0, 5), (4, 3), (3, 3), (1, 4), (2, 3), (2, 5), (0, 0), (3, 5), (5, 5), (5, 1), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 1], [3, 4], [4, 0], [4, 2], [5, 0], [5, 4], [5, 3], [4, 5], [4, 4], [1, 5], [2, 4], [0, 4], [0, 5], [4, 3], [3, 3], [1, 4], [2, 3], [2, 5], [0, 0], [3, 5], [5, 5], [5, 1], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 4), (4, 0), (4, 2), (5, 0), (5, 4), (5, 3), (4, 5), (4, 4), (3, 2), (2, 5), (3, 3), (5, 1), (4, 3), (3, 1), (3, 5), (3, 0), (5, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[4, 1], [3, 4], [4, 0], [4, 2], [5, 0], [5, 4], [5, 3], [4, 5], [4, 4], [3, 2], [2, 5], [3, 3], [5, 1], [4, 3], [3, 1], [3, 5], [3, 0], [5, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 1), (4, 0), (4, 2), (5, 0), (5, 4), (5, 3), (4, 5), (4, 4), (3, 2), (4, 3), (3, 0), (5, 1), (5, 2), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[4, 1], [3, 1], [4, 0], [4, 2], [5, 0], [5, 4], [5, 3], [4, 5], [4, 4], [3, 2], [4, 3], [3, 0], [5, 1], [5, 2], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[(5, 0), (3, 1), (4, 0), (4, 2), (5, 3), (5, 4), (5, 1), (4, 5), (5, 5), (3, 0), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[5, 0], [3, 1], [4, 0], [4, 2], [5, 3], [5, 4], [5, 1], [4, 5], [5, 5], [3, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[(5, 0), (5, 2), (5, 1), (5, 3), (5, 4), (4, 5), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[5, 0], [5, 2], [5, 1], [5, 3], [5, 4], [4, 5], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[(5, 4), (4, 5), (4, 0), (3, 1), (5, 0), (4, 1), (5, 3), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (5, 2), (5, 1), (3, 0)]</t>
+          <t>[[5, 4], [4, 5], [4, 0], [3, 1], [5, 0], [4, 1], [5, 3], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [5, 2], [5, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 1), (5, 0), (4, 2), (5, 3), (5, 4), (3, 3), (4, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 4), (4, 3), (4, 4), (5, 2), (5, 1), (4, 0), (3, 0), (3, 2)]</t>
+          <t>[[4, 1], [3, 1], [5, 0], [4, 2], [5, 3], [5, 4], [3, 3], [4, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 4], [4, 3], [4, 4], [5, 2], [5, 1], [4, 0], [3, 0], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[(5, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (4, 0), (5, 1), (5, 2), (5, 3), (4, 5), (5, 4)]</t>
+          <t>[[5, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [4, 0], [5, 1], [5, 2], [5, 3], [4, 5], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (5, 0), (5, 1), (5, 2), (5, 3), (4, 5), (5, 4)]</t>
+          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [5, 0], [5, 1], [5, 2], [5, 3], [4, 5], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -8235,7 +8235,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 2), (3, 1), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 5), (5, 4)]</t>
+          <t>[[4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 2], [3, 1], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 5], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 4), (3, 1), (4, 3), (4, 2), (3, 2), (3, 0), (4, 0), (4, 1), (5, 0), (5, 1), (5, 2), (5, 3), (4, 4), (4, 5), (5, 4)]</t>
+          <t>[[2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 4], [3, 1], [4, 3], [4, 2], [3, 2], [3, 0], [4, 0], [4, 1], [5, 0], [5, 1], [5, 2], [5, 3], [4, 4], [4, 5], [5, 4]]</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>[(5, 3), (5, 2), (4, 1), (3, 1), (2, 2), (1, 2), (0, 1), (0, 2), (1, 1), (2, 1), (3, 2), (4, 2), (5, 1), (4, 3), (5, 4), (3, 3), (0, 0), (2, 5), (1, 0), (1, 3), (3, 4), (2, 3), (4, 0), (4, 4), (1, 4), (3, 0), (2, 0), (2, 4), (5, 0), (5, 5), (4, 5), (3, 5), (0, 3), (0, 4), (0, 5)]</t>
+          <t>[[5, 3], [5, 2], [4, 1], [3, 1], [2, 2], [1, 2], [0, 1], [0, 2], [1, 1], [2, 1], [3, 2], [4, 2], [5, 1], [4, 3], [5, 4], [3, 3], [0, 0], [2, 5], [1, 0], [1, 3], [3, 4], [2, 3], [4, 0], [4, 4], [1, 4], [3, 0], [2, 0], [2, 4], [5, 0], [5, 5], [4, 5], [3, 5], [0, 3], [0, 4], [0, 5]]</t>
         </is>
       </c>
     </row>
@@ -10400,7 +10400,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (2, 0), (2, 3), (1, 5), (0, 4), (4, 3), (5, 4), (3, 3), (3, 1), (3, 4), (3, 2), (3, 5), (4, 4), (4, 1), (0, 5), (2, 5), (1, 4), (0, 0), (3, 0), (2, 4), (5, 0), (5, 5), (4, 5), (4, 2), (5, 2), (5, 3), (4, 0)]</t>
+          <t>[[2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [2, 0], [2, 3], [1, 5], [0, 4], [4, 3], [5, 4], [3, 3], [3, 1], [3, 4], [3, 2], [3, 5], [4, 4], [4, 1], [0, 5], [2, 5], [1, 4], [0, 0], [3, 0], [2, 4], [5, 0], [5, 5], [4, 5], [4, 2], [5, 2], [5, 3], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -10971,7 +10971,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 1), (0, 0), (1, 2), (1, 0), (1, 5), (0, 5), (3, 0), (3, 1), (2, 3), (2, 5), (3, 3), (4, 3), (5, 4), (3, 2), (4, 0), (3, 4), (4, 1), (3, 5), (4, 4), (4, 2), (4, 5), (5, 5), (5, 2), (5, 0), (5, 1), (1, 4), (2, 4), (2, 1), (1, 3), (2, 0), (0, 3), (0, 4), (2, 2)]</t>
+          <t>[[1, 1], [0, 2], [0, 1], [0, 0], [1, 2], [1, 0], [1, 5], [0, 5], [3, 0], [3, 1], [2, 3], [2, 5], [3, 3], [4, 3], [5, 4], [3, 2], [4, 0], [3, 4], [4, 1], [3, 5], [4, 4], [4, 2], [4, 5], [5, 5], [5, 2], [5, 0], [5, 1], [1, 4], [2, 4], [2, 1], [1, 3], [2, 0], [0, 3], [0, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -11276,110 +11276,120 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1219" t="n">
-        <v>184</v>
+        <v>0.9883261715514352</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1220" t="n">
-        <v>1010</v>
+        <v>184</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1221" t="n">
-        <v>15</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1222" t="n">
-        <v>3.195433139801025</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>0.1976358890533447</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1223" t="inlineStr">
+      <c r="B1224" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1223" t="inlineStr">
+      <c r="C1224" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1223" t="inlineStr">
+      <c r="D1224" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1223" t="inlineStr">
+      <c r="E1224" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1223" t="inlineStr">
+      <c r="F1224" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1223" t="inlineStr">
+      <c r="G1224" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1223" t="inlineStr">
+      <c r="H1224" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1223" t="inlineStr">
+      <c r="I1224" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1223" t="inlineStr">
+      <c r="J1224" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1223" t="inlineStr">
+      <c r="K1224" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1223" t="inlineStr">
+      <c r="L1224" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1223" t="inlineStr">
+      <c r="M1224" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1223" t="inlineStr">
+      <c r="N1224" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
